--- a/data/concepts_l0.xlsx
+++ b/data/concepts_l0.xlsx
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>l1_concept</t>
+          <t>l0_concept</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/data/concepts_l0.xlsx
+++ b/data/concepts_l0.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>1136</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1110</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>917</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>914</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>822</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>787</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>601</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>523</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>444</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>340</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12">
@@ -476,27 +476,27 @@
         </is>
       </c>
       <c r="B12">
-        <v>279</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Environmental science</t>
+          <t>Chemistry</t>
         </is>
       </c>
       <c r="B13">
-        <v>217</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Chemistry</t>
+          <t>Environmental science</t>
         </is>
       </c>
       <c r="B14">
-        <v>202</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>117</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
